--- a/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
+++ b/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="289">
   <si>
     <t>mzML</t>
   </si>
@@ -189,9 +189,6 @@
     <t>cl</t>
   </si>
   <si>
-    <t>Sum Br + Cl</t>
-  </si>
-  <si>
     <t>Potassium</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>i</t>
   </si>
   <si>
-    <t>Sum Br + Cl + F + I</t>
-  </si>
-  <si>
     <t>Sodium</t>
   </si>
   <si>
@@ -312,9 +306,6 @@
     <t>PARAM0018</t>
   </si>
   <si>
-    <t>You may download the PubChem library from www.github.com/</t>
-  </si>
-  <si>
     <t>Ionization pathways to acquire molecular formulas from the library</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>Choose "Sample Mode" or "Peak Mode"</t>
   </si>
   <si>
-    <t>Constraints for number of bromine and chlorine atoms in a compound</t>
-  </si>
-  <si>
     <t>User input 1</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Mass range (Da)</t>
   </si>
   <si>
-    <t>Extended SENIOR rule</t>
-  </si>
-  <si>
     <t>Ionization pathway</t>
   </si>
   <si>
@@ -555,15 +540,9 @@
     <t>"TopRank" or "OveralRank"</t>
   </si>
   <si>
-    <t>Lower limit of score coefficients</t>
-  </si>
-  <si>
     <t>A vector of five positive numbers</t>
   </si>
   <si>
-    <t>Upper limit of score coefficients</t>
-  </si>
-  <si>
     <t>Population size</t>
   </si>
   <si>
@@ -687,12 +666,6 @@
     <t>PARAM0028</t>
   </si>
   <si>
-    <t>Address of the aligned indexed peak table (.Rdata)</t>
-  </si>
-  <si>
-    <t>Address of the aligned peak property table (.Rdata)</t>
-  </si>
-  <si>
     <t>Follow the naming rules in R</t>
   </si>
   <si>
@@ -735,6 +708,551 @@
     <t>≥ 0, Maximum space between two neighboring isotopologues</t>
   </si>
   <si>
+    <t>"YES" OR "NO"(When "YES", fill out SFT0002 and parameters from SFT0011-SFT0017)</t>
+  </si>
+  <si>
+    <r>
+      <t>Generate a new isotopic profile database (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Annotate the molecular formulas on individual peaklists</t>
+  </si>
+  <si>
+    <t>Visualize isotopic profiles</t>
+  </si>
+  <si>
+    <t>Number of parallel threads</t>
+  </si>
+  <si>
+    <t>Check the coverage in a library of molecular formula</t>
+  </si>
+  <si>
+    <t>Address of molecular formulas library (.Rdata) This library must have been produced by the 'molecular_formula_library_generator' module</t>
+  </si>
+  <si>
+    <r>
+      <t>Use a constant value or an R script using elements in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essential elements'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
+    </r>
+  </si>
+  <si>
+    <t>Peak spacing (Da)</t>
+  </si>
+  <si>
+    <t>Use a constant value or an R script using elements in the 'Essential elements' section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
+  </si>
+  <si>
+    <t>[M+H/K/Na]</t>
+  </si>
+  <si>
+    <t>if (s&gt;0 &amp; si&gt;0) {min(c(c, 5, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 5, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 5, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}</t>
+  </si>
+  <si>
+    <t>c("[M+H]+", "[M+Na]+","[M-H2O+H]+")</t>
+  </si>
+  <si>
+    <t>Optimize the score function coefficients</t>
+  </si>
+  <si>
+    <t>Aggregate the molecular formulas for the aligned peak table</t>
+  </si>
+  <si>
+    <t>Molecular ion formula enumeration</t>
+  </si>
+  <si>
+    <t>PARAM0029</t>
+  </si>
+  <si>
+    <t>Adjust peak frequency and ranks</t>
+  </si>
+  <si>
+    <t>rep(0, 5)</t>
+  </si>
+  <si>
+    <t>rep(1, 5)</t>
+  </si>
+  <si>
+    <t>Molecular formula annotation criteria for individual peaklists</t>
+  </si>
+  <si>
+    <t>rep(10, 5)</t>
+  </si>
+  <si>
+    <t>FS0008</t>
+  </si>
+  <si>
+    <t>Isotopic profile calculations memory usage</t>
+  </si>
+  <si>
+    <t>/peaklists</t>
+  </si>
+  <si>
+    <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_Xcol.Rdata</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_R13C.Rdata</t>
+  </si>
+  <si>
+    <t>/IPDB_MTBLS1684.Rdata</t>
+  </si>
+  <si>
+    <t>SA0011</t>
+  </si>
+  <si>
+    <t>/.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enumerate the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> through enumerated chemical space (ECS) method</t>
+    </r>
+  </si>
+  <si>
+    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for SFT0007)</t>
+  </si>
+  <si>
+    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0011)</t>
+  </si>
+  <si>
+    <t>IPDB_name</t>
+  </si>
+  <si>
+    <t>/.csv</t>
+  </si>
+  <si>
+    <t>/MS1/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'score_function_optimization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'profile_visualization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'enumerated_chemical_space'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'formula_source'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tab)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You may use a peak property table from the 'peak_alignment' folder of the IDSL.IPA project such as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'peak_height_gapfilled.Rdata'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'peak_height.Rdata'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RCS (%)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/number of scans within 80% of peak height)</t>
+    </r>
+  </si>
+  <si>
+    <t>Perform the genetic algorithm optimization</t>
+  </si>
+  <si>
+    <t>Evaluate the performance of the genetic algorithm optimization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It must be in *.xlsx format with the file extension. Four column headers with 'FileName', 'MolcularFormula', 'IonizationPathway', 'RetentionTime(min)' must be available in the spreadsheet. You should ensure molecular formulas in the reference file are also included in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>A vector of five positive numbers (Each array must be greater than its corresponding array in SFT0020)</t>
+  </si>
+  <si>
+    <t>A vector in a same size of variable 'SA0001' to search for molecular formulas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file with one column of targeted molecular formulas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Essential elements"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>c(1e30, 1e-12, 10)</t>
+  </si>
+  <si>
+    <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
+  </si>
+  <si>
+    <r>
+      <t>Address of the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of top rank candidate molecular formulas on individual files</t>
+  </si>
+  <si>
+    <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
+  </si>
+  <si>
+    <r>
+      <t>This file is usually named '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_Xcol.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' folder of the IDSL.IPA pipeline</t>
+    </r>
+  </si>
+  <si>
+    <t>R variable name</t>
+  </si>
+  <si>
+    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
+  </si>
+  <si>
+    <t>Rule 2 (Extended SENIOR rule)</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl))</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
+  </si>
+  <si>
+    <t>Rule 4 (Maximum number of elements rule)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
     </r>
@@ -759,8 +1277,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">"TRUE" or "FALSE". The </t>
+    <t>Default = TRUE, `TRUE` or `FALSE`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
     </r>
     <r>
       <rPr>
@@ -779,15 +1300,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled s- and p- valence shells.</t>
-    </r>
-  </si>
-  <si>
-    <t>"YES" OR "NO"(When "YES", fill out SFT0002 and parameters from SFT0011-SFT0017)</t>
-  </si>
-  <si>
-    <r>
-      <t>Generate a new isotopic profile database (</t>
+      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- valence shells.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
     </r>
     <r>
       <rPr>
@@ -797,36 +1353,169 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Rule 2 (Extended SENIOR rule)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(na + k) &lt;= 1</t>
+  </si>
+  <si>
+    <t>Molecular formula prioritization rules</t>
+  </si>
+  <si>
+    <t>/path/to/folder/IDSL.UFA</t>
+  </si>
+  <si>
+    <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>IPDB</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IDSL.IPA peaklists must be in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", it sorts candidate molecular formulas using the `</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sqrt(frequency)/rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>` equation, and when "NO" it sorts candidate molecular formulas relative to frequency of detections across samples)</t>
+    </r>
+  </si>
+  <si>
+    <t>Lower limits of score coefficients</t>
+  </si>
+  <si>
+    <t>Upper limits of score coefficients</t>
+  </si>
+  <si>
+    <t>OveralRank</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of bromine and chlorine atoms in a compound. Suggested to use values between [0-8].</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of halogen atoms in a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
+  </si>
+  <si>
+    <t>IPDB_ECS</t>
+  </si>
+  <si>
+    <t>IDSL.IPA peaklists must be in .Rdata format</t>
+  </si>
+  <si>
+    <r>
+      <t>Address of the aligned indexed peak table (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Annotate the molecular formulas on individual peaklists</t>
-  </si>
-  <si>
-    <t>Visualize isotopic profiles</t>
-  </si>
-  <si>
-    <t>Number of parallel threads</t>
-  </si>
-  <si>
-    <t>Check the coverage in a library of molecular formula</t>
-  </si>
-  <si>
-    <t>Address of molecular formulas library (.Rdata) This library must have been produced by the 'molecular_formula_library_generator' module</t>
-  </si>
-  <si>
-    <r>
-      <t>Use a constant value or an R script using elements in the '</t>
+    <r>
+      <t>Address of the aligned peak property table (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = </t>
     </r>
     <r>
       <rPr>
@@ -836,7 +1525,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Essential elements'</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -845,109 +1534,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
-    </r>
-  </si>
-  <si>
-    <t>Constraints for number of halogen atoms in a compound. This parameter also depends on the "Sum Br + Cl" parameter.</t>
-  </si>
-  <si>
-    <t>Peak spacing (Da)</t>
-  </si>
-  <si>
-    <t>Use a constant value or an R script using elements in the 'Essential elements' section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 10))}"</t>
-  </si>
-  <si>
-    <t>2*c+3*n+6</t>
-  </si>
-  <si>
-    <t>((h+cl+br+f+i) &gt;= (c/2-n-1)) &amp; ((k+na) &lt;= 1) &amp; ((((na + k) == 0) &amp; length(which(c(c, b, br, cl, k, s, se, si, n, h, as, f, i, na, o, p) &gt; 0)) &lt;= 6) | (((na + k) == 1) &amp; length(which(c(c, b, br, cl, k, s, se, si, n, h, as, f, i, na, o, p) &gt; 0)) &lt;= 7))</t>
-  </si>
-  <si>
-    <t>[M+H/K/Na]</t>
-  </si>
-  <si>
-    <t>if (s&gt;0 &amp; si&gt;0) {min(c(c, 5, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 5, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 5, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}</t>
-  </si>
-  <si>
-    <t>IPDB_MTBLS1684</t>
-  </si>
-  <si>
-    <t>c("[M+H]+", "[M+Na]+","[M-H2O+H]+")</t>
-  </si>
-  <si>
-    <t>Optimize the score function coefficients</t>
-  </si>
-  <si>
-    <t>Aggregate the molecular formulas for the aligned peak table</t>
-  </si>
-  <si>
-    <t>Molecular ion formula enumeration</t>
-  </si>
-  <si>
-    <t>PARAM0029</t>
-  </si>
-  <si>
-    <t>Adjust peak frequency and ranks</t>
-  </si>
-  <si>
-    <t>rep(0, 5)</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", it sorts candidate molecular formulas using the `sqrt(frequency)/rank` equation, and when "NO" it sorts candidate molecular formulas relative to frequency of detections across samples)</t>
-  </si>
-  <si>
-    <t>rep(1, 5)</t>
-  </si>
-  <si>
-    <t>Molecular formula annotation criteria for individual peaklists</t>
-  </si>
-  <si>
-    <t>rep(10, 5)</t>
-  </si>
-  <si>
-    <t>FS0008</t>
-  </si>
-  <si>
-    <t>Isotopic profile calculations memory usage</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/peaklists</t>
-  </si>
-  <si>
-    <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
-  </si>
-  <si>
-    <t>/peak_alignment/peak_Xcol.Rdata</t>
-  </si>
-  <si>
-    <t>/peak_alignment/peak_R13C.Rdata</t>
-  </si>
-  <si>
-    <t>/IPDB_MTBLS1684.Rdata</t>
-  </si>
-  <si>
-    <t>SA0011</t>
-  </si>
-  <si>
-    <t>/.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enumerate the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>IPDB</t>
+      <t>Na</t>
     </r>
     <r>
       <rPr>
@@ -956,190 +1553,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> through enumerated chemical space (ECS) method</t>
-    </r>
-  </si>
-  <si>
-    <t>/IPDB_folder</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0008)</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for SFT0007)</t>
-  </si>
-  <si>
-    <t>"mzML", "mzXML" or "CDF" (Fill this cell in case you selected "All" for PARAM0011)</t>
-  </si>
-  <si>
-    <t>IPDB_name</t>
-  </si>
-  <si>
-    <t>/IPDB_folder/</t>
-  </si>
-  <si>
-    <t>/.csv</t>
-  </si>
-  <si>
-    <t>/MS1/</t>
-  </si>
-  <si>
-    <t>/path/to/folder</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'score_function_optimization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'profile_visualization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'enumerated_chemical_space'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'formula_source'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tab)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You may use a peak property table from the 'peak_alignment' folder of the IDSL.IPA project such as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'peak_height_gapfilled.Rdata'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'peak_height.Rdata'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>RCS (%)</t>
+      <t>K</t>
     </r>
     <r>
       <rPr>
@@ -1148,252 +1572,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NDCS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/number of scans within 80% of peak height)</t>
-    </r>
-  </si>
-  <si>
-    <t>Perform the genetic algorithm optimization</t>
-  </si>
-  <si>
-    <t>Evaluate the performance of the genetic algorithm optimization</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It must be in *.xlsx format with the file extension. Four column headers with 'FileName', 'MolcularFormula', 'IonizationPathway', 'RetentionTime(min)' must be available in the spreadsheet. You should ensure molecular formulas in the reference file are also included in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>A vector of five positive numbers (Each array must be greater than its corresponding array in SFT0020)</t>
-  </si>
-  <si>
-    <t>A vector in a same size of variable 'SA0001' to search for molecular formulas</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address of a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> file with one column of targeted molecular formulas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Essential elements"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>c(1e30, 1e-12, 10)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case "TRUE" is selected for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>extended SENIOR rule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default values are c(1e30, 1e-12, 10). See the `UFA_IP_memeory_variables` parameter from `Isotopic Profile Calculator` documentation to adjust memory usage.</t>
-  </si>
-  <si>
-    <r>
-      <t>Address of the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of top rank candidate molecular formulas on individual files</t>
-  </si>
-  <si>
-    <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
-  </si>
-  <si>
-    <r>
-      <t>This file is usually named '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_Xcol.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_alignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' folder of the IDSL.IPA pipeline</t>
-    </r>
-  </si>
-  <si>
-    <t>R variable name</t>
+      <t xml:space="preserve"> elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1648,13 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1539,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1682,6 +1876,236 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -1714,230 +2138,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2158,12 +2363,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,338 +2384,341 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2528,25 +2730,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2557,68 +2768,77 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,7 +3131,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2928,216 +3148,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="99" t="s">
+      <c r="C2" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="E2" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
-        <v>/IPDB_folder//IPDB_name.Rdata</v>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="110">
+      <c r="C10" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="107">
         <v>35</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="D11" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -3145,17 +3365,17 @@
         <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="187"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -3166,75 +3386,75 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="189"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="188"/>
+      <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="118" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="119" t="s">
+      <c r="D15" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+    </row>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-    </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
+      <c r="D16" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3253,9 +3473,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
@@ -3264,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3277,9 +3497,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>40</v>
@@ -3288,7 +3508,7 @@
         <v>950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="12">
         <v>950</v>
@@ -3301,12 +3521,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
@@ -3319,12 +3539,12 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
@@ -3337,168 +3557,168 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
-      <c r="B22" s="120" t="s">
+      <c r="A22" s="180"/>
+      <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="122" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
+      <c r="C22" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="119"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
-      <c r="B23" s="128" t="s">
+      <c r="A23" s="181"/>
+      <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="129" t="s">
+      <c r="C23" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="128" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="129"/>
+    </row>
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="181"/>
+      <c r="B24" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="131"/>
+    </row>
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="182"/>
+      <c r="B25" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="133" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="135" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="136"/>
+    </row>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="189" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+    </row>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="190"/>
+      <c r="B27" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+    </row>
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="190"/>
+      <c r="B28" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="92">
+        <v>50</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+    </row>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="190"/>
+      <c r="B29" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="92">
+        <v>20</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="191"/>
+      <c r="B30" s="137" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="132"/>
-    </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
-      <c r="B24" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="134"/>
-    </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
-      <c r="B25" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="136" t="s">
+      <c r="C30" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="137" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="139"/>
-    </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="190" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-    </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
-      <c r="B27" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
-      <c r="B28" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="95">
-        <v>50</v>
-      </c>
-      <c r="E28" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-    </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
-      <c r="B29" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="95">
-        <v>20</v>
-      </c>
-      <c r="E29" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-    </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="192"/>
-      <c r="B30" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="143" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
+      <c r="E30" s="140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3515,11 +3735,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3534,28 +3754,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="75" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F1" s="77" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="193" t="s">
-        <v>236</v>
+      <c r="A2" s="192" t="s">
+        <v>221</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -3565,12 +3785,12 @@
       <c r="E2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="194"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3579,11 +3799,11 @@
       <c r="E3" s="73">
         <v>1200</v>
       </c>
-      <c r="F3" s="83"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="195" t="s">
-        <v>83</v>
+      <c r="A4" s="194" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="71" t="s">
         <v>46</v>
@@ -3597,10 +3817,10 @@
       <c r="E4" s="66">
         <v>50</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="196"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
@@ -3613,10 +3833,10 @@
       <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="83"/>
     </row>
     <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="196"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
@@ -3629,10 +3849,10 @@
       <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="196"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3645,15 +3865,15 @@
       <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="85"/>
-    </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196"/>
-      <c r="B8" s="87" t="s">
-        <v>53</v>
+      <c r="F7" s="83"/>
+    </row>
+    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="195"/>
+      <c r="B8" s="177" t="s">
+        <v>265</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -3661,17 +3881,17 @@
       <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>106</v>
+      <c r="F8" s="84" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -3679,15 +3899,15 @@
       <c r="E9" s="26">
         <v>0</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -3695,15 +3915,15 @@
       <c r="E10" s="26">
         <v>1</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="196"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -3711,15 +3931,15 @@
       <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="197"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="80" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="73">
         <v>0</v>
@@ -3727,17 +3947,17 @@
       <c r="E12" s="73">
         <v>0</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="201" t="s">
-        <v>95</v>
+      <c r="A13" s="200" t="s">
+        <v>92</v>
       </c>
       <c r="B13" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="72" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="66">
         <v>0</v>
@@ -3745,31 +3965,32 @@
       <c r="E13" s="66">
         <v>2</v>
       </c>
-      <c r="F13" s="84"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="201"/>
+      <c r="A14" s="200"/>
       <c r="B14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="85"/>
+      <c r="E14" s="26">
+        <f>2*E4+3*E13+6</f>
+        <v>112</v>
+      </c>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="201"/>
+      <c r="A15" s="200"/>
       <c r="B15" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -3777,15 +3998,15 @@
       <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="201"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -3793,15 +4014,15 @@
       <c r="E16" s="26">
         <v>0</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="201"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="D17" s="26">
         <v>0</v>
@@ -3809,15 +4030,15 @@
       <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="85"/>
-    </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="201"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="200"/>
       <c r="B18" s="24" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -3825,17 +4046,17 @@
       <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="86" t="s">
-        <v>225</v>
+      <c r="F18" s="84" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="201"/>
+      <c r="A19" s="200"/>
       <c r="B19" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -3843,15 +4064,15 @@
       <c r="E19" s="26">
         <v>1</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="201"/>
+      <c r="A20" s="200"/>
       <c r="B20" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -3859,181 +4080,215 @@
       <c r="E20" s="26">
         <v>10</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
-      <c r="B21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="26">
+      <c r="A21" s="200"/>
+      <c r="B21" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="73">
         <v>0</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="73">
         <v>1</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="205" t="s">
+      <c r="A22" s="207" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="208"/>
+      <c r="B23" s="205" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="208"/>
+      <c r="B24" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="209"/>
+      <c r="B25" s="206" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="206"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="67">
+        <v>6</v>
+      </c>
+      <c r="F25" s="178" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="216" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="195"/>
+      <c r="B27" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="79" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="196"/>
-      <c r="B23" s="198" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="81" t="s">
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="195"/>
+      <c r="B28" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="198"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="195"/>
+      <c r="B29" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199"/>
+      <c r="E29" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="195"/>
+      <c r="B30" s="202" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="80" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="196"/>
-      <c r="B24" s="202" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="196"/>
-      <c r="B25" s="217" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="217"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="196"/>
-      <c r="B26" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="86" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="196"/>
-      <c r="B27" s="198" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F27" s="85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="196"/>
-      <c r="B28" s="211" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="212"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="196"/>
-      <c r="B29" s="208" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="26">
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="195"/>
+      <c r="B31" s="210" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="211"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="26">
         <v>16</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F31" s="83" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="196"/>
-      <c r="B30" s="211" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="212"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="85"/>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="197"/>
-      <c r="B31" s="214" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="215"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="195"/>
+      <c r="B32" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="27" t="str">
+        <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+      </c>
+      <c r="F32" s="83"/>
+    </row>
+    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="196"/>
+      <c r="B33" s="213" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="214"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="17">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A22:A31"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4046,7 +4301,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,136 +4318,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="218" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="146" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="A2" s="219" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D7" s="32">
         <v>35</v>
@@ -4205,15 +4460,16 @@
       <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="219"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>260</v>
+        <v>201</v>
+      </c>
+      <c r="D8" s="32" t="str">
+        <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
+        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="32"/>
@@ -4221,22 +4477,22 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="220"/>
-      <c r="B9" s="149" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="150" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="149" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="151" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="A9" s="221"/>
+      <c r="B9" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4254,7 +4510,7 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4271,16 +4527,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
@@ -4291,91 +4547,91 @@
       <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="222" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="154" t="s">
+      <c r="A2" s="223" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="155" t="s">
-        <v>217</v>
+      <c r="E2" s="152" t="s">
+        <v>206</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="223"/>
+      <c r="A3" s="224"/>
       <c r="B3" s="62" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="223"/>
+      <c r="A4" s="224"/>
       <c r="B4" s="62" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="223"/>
+      <c r="A5" s="224"/>
       <c r="B5" s="62" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="224"/>
-      <c r="B6" s="156" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="157" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="158">
+      <c r="A6" s="225"/>
+      <c r="B6" s="153" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="155">
         <v>20</v>
       </c>
-      <c r="E6" s="159" t="s">
+      <c r="E6" s="156" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="56"/>
@@ -4383,122 +4639,127 @@
       <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>194</v>
+      <c r="D7" s="103" t="str">
+        <f>parameters!D11</f>
+        <v>/MS1/</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>187</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>81</v>
+      <c r="D8" s="11" t="str">
+        <f>parameters!D12</f>
+        <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>0</v>
+      <c r="D9" s="11" t="str">
+        <f>parameters!D13</f>
+        <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>247</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>parameters!D14</f>
+        <v>/peaklists</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="189"/>
-      <c r="B11" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="117" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="119"/>
+      <c r="A11" s="188"/>
+      <c r="B11" s="113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="115" t="str">
+        <f>parameters!D15</f>
+        <v>/path/to/folder/IDSL.UFA</v>
+      </c>
+      <c r="E11" s="116"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="114" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="115" t="s">
-        <v>273</v>
+      <c r="A12" s="179" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>251</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4511,27 +4772,27 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>39</v>
@@ -4540,16 +4801,16 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="180"/>
       <c r="B16" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>40</v>
@@ -4558,19 +4819,19 @@
         <v>950</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="180"/>
       <c r="B17" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="12">
         <v>3</v>
@@ -4583,17 +4844,17 @@
       <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="225"/>
-      <c r="B18" s="164" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="165" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="166">
+      <c r="A18" s="226"/>
+      <c r="B18" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="162" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="163">
         <v>30</v>
       </c>
-      <c r="E18" s="167" t="s">
+      <c r="E18" s="164" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="57"/>
@@ -4601,30 +4862,32 @@
       <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="226" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="161" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163" t="s">
-        <v>160</v>
+      <c r="A19" s="227" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="159" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="160" t="s">
+        <v>155</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227"/>
+      <c r="A20" s="228"/>
       <c r="B20" s="50" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -4635,71 +4898,71 @@
       <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="227"/>
+      <c r="A21" s="228"/>
       <c r="B21" s="50" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
     <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="227"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="50" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
     <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="227"/>
+      <c r="A23" s="228"/>
       <c r="B23" s="50" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="228"/>
-      <c r="B24" s="168" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="170">
+      <c r="A24" s="229"/>
+      <c r="B24" s="165" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="167">
         <v>10</v>
       </c>
-      <c r="E24" s="171" t="s">
+      <c r="E24" s="168" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="57"/>
@@ -4707,7 +4970,7 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
+      <c r="A25" s="222"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -4717,7 +4980,7 @@
       <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="221"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -4727,7 +4990,7 @@
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="221"/>
+      <c r="A27" s="222"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -4754,8 +5017,8 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,262 +5035,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="D2" s="101" t="str">
+        <f>parameters!D11</f>
+        <v>/MS1/</v>
+      </c>
+      <c r="E2" s="235"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="188"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="187"/>
+      <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>97</v>
+      <c r="D3" s="101" t="str">
+        <f>parameters!D12</f>
+        <v>All</v>
+      </c>
+      <c r="E3" s="235" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="187"/>
+      <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>256</v>
+      <c r="D4" s="101" t="str">
+        <f>parameters!D13</f>
+        <v>mzML</v>
+      </c>
+      <c r="E4" s="235" t="s">
+        <v>239</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="187"/>
+      <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>90</v>
+      <c r="C5" s="233" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="101" t="str">
+        <f>parameters!D14</f>
+        <v>/peaklists</v>
+      </c>
+      <c r="E5" s="235" t="s">
+        <v>285</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="189"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="188"/>
+      <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="D6" s="113" t="str">
+        <f>parameters!D15</f>
+        <v>/path/to/folder/IDSL.UFA</v>
+      </c>
+      <c r="E6" s="236" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="229" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="173" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="172" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="174" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="A7" s="230" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="230"/>
+      <c r="A8" s="231"/>
       <c r="B8" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="230"/>
+      <c r="A9" s="231"/>
       <c r="B9" s="42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="230"/>
+      <c r="A10" s="231"/>
       <c r="B10" s="42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+      <c r="A11" s="231"/>
       <c r="B11" s="42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
+      <c r="A13" s="231"/>
       <c r="B13" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="231"/>
       <c r="B14" s="42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5040,12 +5308,12 @@
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="231"/>
       <c r="B15" s="42" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
@@ -5058,40 +5326,40 @@
       <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="231"/>
       <c r="B16" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="176" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="176" t="s">
+      <c r="A17" s="232"/>
+      <c r="B17" s="173" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="178" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="E17" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
+++ b/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
   <si>
     <t>mzML</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Global parameters (required)</t>
   </si>
   <si>
-    <t>Output location (MS1 processed data)</t>
-  </si>
-  <si>
     <t>Input HRMS data format</t>
   </si>
   <si>
@@ -144,15 +141,6 @@
     <t>Parameter ID</t>
   </si>
   <si>
-    <t>MS data location (MS1 level HRMS data)</t>
-  </si>
-  <si>
-    <t>Maximum NEME (mDa)</t>
-  </si>
-  <si>
-    <t>Minimum PCS (‰)</t>
-  </si>
-  <si>
     <t>PARAM0016</t>
   </si>
   <si>
@@ -309,15 +297,9 @@
     <t>Ionization pathways to acquire molecular formulas from the library</t>
   </si>
   <si>
-    <t>Peaklist data location</t>
-  </si>
-  <si>
     <t>IDSL.IPA peaklists must be in *.Rdata format</t>
   </si>
   <si>
-    <t>Coefficients of identification score function</t>
-  </si>
-  <si>
     <t>Aligned table molecular formula annotation</t>
   </si>
   <si>
@@ -357,9 +339,6 @@
     <t>Sample Mode</t>
   </si>
   <si>
-    <t>Choose "Sample Mode" or "Peak Mode"</t>
-  </si>
-  <si>
     <t>User input 1</t>
   </si>
   <si>
@@ -528,9 +507,6 @@
     <t>Mass accuracy (Da)</t>
   </si>
   <si>
-    <t>≥ 0.1</t>
-  </si>
-  <si>
     <t>Genetic algorithm parameters</t>
   </si>
   <si>
@@ -636,9 +612,6 @@
     <t>Use only HRMS files with reference standard compounds</t>
   </si>
   <si>
-    <t>Output location</t>
-  </si>
-  <si>
     <t>This file may be derived from PARAM0004 parameter in the 'parameters' tab</t>
   </si>
   <si>
@@ -828,15 +801,9 @@
     <t>/PubChem_MolecularFormula_Freq_Database.Rdata</t>
   </si>
   <si>
-    <t>/peak_alignment/peak_Xcol.Rdata</t>
-  </si>
-  <si>
     <t>/peak_alignment/peak_R13C.Rdata</t>
   </si>
   <si>
-    <t>/IPDB_MTBLS1684.Rdata</t>
-  </si>
-  <si>
     <t>SA0011</t>
   </si>
   <si>
@@ -879,9 +846,6 @@
     <t>/.csv</t>
   </si>
   <si>
-    <t>/MS1/</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">"YES" OR "NO" (When "YES", fill out parameters in the </t>
     </r>
@@ -1196,65 +1160,115 @@
     <t>Number of the tabulated candidate molecular formulas after aggregating molecular formulas on the aligned table</t>
   </si>
   <si>
-    <r>
-      <t>This file is usually named '</t>
+    <t>R variable name</t>
+  </si>
+  <si>
+    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
+  </si>
+  <si>
+    <t>Rule 2 (Extended SENIOR rule)</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl))</t>
+  </si>
+  <si>
+    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
+  </si>
+  <si>
+    <t>Rule 4 (Maximum number of elements rule)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> elements.</t>
+    </r>
+  </si>
+  <si>
+    <t>Default = TRUE, `TRUE` or `FALSE`</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>extended SENIOR rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_Xcol.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' in the '</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- and </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>peak_alignment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' folder of the IDSL.IPA pipeline</t>
-    </r>
-  </si>
-  <si>
-    <t>R variable name</t>
-  </si>
-  <si>
-    <t>Rule 1 (C/N chemical space rule (c/2-n-1) ≤ (h+cl+br+f+i) ≤ (2c+3n+6))</t>
-  </si>
-  <si>
-    <t>Rule 2 (Extended SENIOR rule)</t>
-  </si>
-  <si>
-    <t>Rule 3 (Σ(Br + Cl))</t>
-  </si>
-  <si>
-    <t>Rule 3 (Σ(Br + Cl + F + I))</t>
-  </si>
-  <si>
-    <t>Rule 4 (Maximum number of elements rule)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using </t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- valence shells.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
     </r>
     <r>
       <rPr>
@@ -1264,7 +1278,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>ALL</t>
+      <t>Rule 2 (Extended SENIOR rule)</t>
     </r>
     <r>
       <rPr>
@@ -1273,95 +1287,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> elements.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default = TRUE, `TRUE` or `FALSE`</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default = TRUE, `TRUE` or `FALSE`. The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>extended SENIOR rule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is the second rule from the seven golden rules to ensure the molecular formulas completely filled </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>- valence shells.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">c("[M+H/K/Na]", "[M-H]", "[M]"). Fill this cell in case 'TRUE' is selected for the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rule 2 (Extended SENIOR rule)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -1372,32 +1297,7 @@
     <t>Molecular formula prioritization rules</t>
   </si>
   <si>
-    <t>/path/to/folder/IDSL.UFA</t>
-  </si>
-  <si>
     <t>You may download the PubChem library from https://zenodo.org/record/7065107/files/PubChem_MolecularFormula_Freq_Database.Rdata?download=1</t>
-  </si>
-  <si>
-    <r>
-      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1454,12 +1354,6 @@
     <t>OveralRank</t>
   </si>
   <si>
-    <t>This rule is to constrain number of bromine and chlorine atoms in a compound. Suggested to use values between [0-8].</t>
-  </si>
-  <si>
-    <t>This rule is to constrain number of halogen atoms in a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
-  </si>
-  <si>
     <t>IPDB_ECS</t>
   </si>
   <si>
@@ -1573,6 +1467,136 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
+    </r>
+  </si>
+  <si>
+    <t>This rule is to constrain number of bromine and chlorine atoms for a compound. Suggested to use values between [0-8].</t>
+  </si>
+  <si>
+    <t>This rule is to constrain number of halogen atoms for a compound. This parameter also depends on the "Rule 3 (Σ(Br + Cl))" parameter. Suggested to use values between [0-31].</t>
+  </si>
+  <si>
+    <t>≥ 1 (Visit https://github.com/idslme/IDSL.UFA/wiki/NDCS-RCS)</t>
+  </si>
+  <si>
+    <t>Coefficients of identification score function (See equation 6 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Minimum PCS (‰) (See equation 4 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Maximum NEME (mDa) (See equation 5 in the main manuscript)</t>
+  </si>
+  <si>
+    <t>Graphical Guide</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/Peak-Spacing-and-Intensity-Cutoff</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum RCS (%) = (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NDCS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/number of scans within 80% of peak height)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0025-PARAM0029) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rdocumentation.org/packages/IDSL.UFA/versions/1.6/topics/isotopic_profile_calculator</t>
+  </si>
+  <si>
+    <t>/path/to/folder//MS1</t>
+  </si>
+  <si>
+    <t>Select "Sample Mode" or "Peak Mode"</t>
+  </si>
+  <si>
+    <t>MS data location address (MS1 level HRMS data)</t>
+  </si>
+  <si>
+    <t>Output location address (MS1 processed data)</t>
+  </si>
+  <si>
+    <t>Peaklist data location address</t>
+  </si>
+  <si>
+    <t>/peak_alignment/peak_Xcol.Rdata</t>
+  </si>
+  <si>
+    <r>
+      <t>This file is usually named '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_Xcol.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>peak_alignment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' folder of the IDSL.IPA pipeline</t>
     </r>
   </si>
 </sst>
@@ -1580,7 +1604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,6 +1679,22 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2139,10 +2179,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2666,6 +2707,63 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2735,6 +2833,24 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2744,48 +2860,36 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2795,6 +2899,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,20 +2938,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3129,39 +3234,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="86" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="100" t="s">
         <v>5</v>
@@ -3173,288 +3278,289 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="202" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="97" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F2" s="97"/>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="184"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="203"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="203"/>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="203"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D8, "/", formula_source!D9, ".Rdata")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="203"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="203"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="203"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="203"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="204"/>
       <c r="B10" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D10" s="107">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E10" s="108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="107"/>
       <c r="G10" s="107"/>
       <c r="H10" s="107"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186" t="s">
-        <v>34</v>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="205" t="s">
+        <v>33</v>
       </c>
       <c r="B11" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="102" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="103"/>
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="206"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="206"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="206"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="188"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="207"/>
       <c r="B15" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="115" t="s">
-        <v>274</v>
+        <v>286</v>
+      </c>
+      <c r="D15" s="115" t="str">
+        <f>CONCATENATE(D11, "/IDSL.UFA")</f>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="115"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
-        <v>226</v>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="198" t="s">
+        <v>217</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="111"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D17" s="12">
         <v>0.01</v>
@@ -3472,19 +3578,19 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="199"/>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -3496,19 +3602,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="199"/>
       <c r="B19" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="D19" s="12">
         <v>950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F19" s="12">
         <v>950</v>
@@ -3520,159 +3626,159 @@
         <v>950</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="199"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" s="12">
         <v>2</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="199"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D21" s="12">
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="180"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="199"/>
       <c r="B22" s="117" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="118" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E22" s="120" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F22" s="119"/>
       <c r="G22" s="119"/>
       <c r="H22" s="119"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="200"/>
       <c r="B23" s="125" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="126" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="128" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F23" s="127"/>
       <c r="G23" s="127"/>
       <c r="H23" s="129"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="200"/>
       <c r="B24" s="130" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
       <c r="H24" s="131"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="201"/>
       <c r="B25" s="132" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E25" s="135" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F25" s="134"/>
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="189" t="s">
-        <v>89</v>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="208" t="s">
+        <v>83</v>
       </c>
       <c r="B26" s="121" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" s="122" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D26" s="123" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F26" s="123"/>
       <c r="G26" s="123"/>
       <c r="H26" s="123"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="190"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="209"/>
       <c r="B27" s="88" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C27" s="89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D27" s="90" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
       <c r="H27" s="90"/>
     </row>
-    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="190"/>
+    <row r="28" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="209"/>
       <c r="B28" s="88" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D28" s="92">
         <v>50</v>
@@ -3684,13 +3790,13 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="190"/>
+    <row r="29" spans="1:8" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="209"/>
       <c r="B29" s="88" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C29" s="89" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D29" s="92">
         <v>20</v>
@@ -3702,25 +3808,25 @@
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
+    <row r="30" spans="1:8" s="28" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="210"/>
       <c r="B30" s="137" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C30" s="138" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D30" s="139" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="140" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F30" s="139"/>
       <c r="G30" s="139"/>
       <c r="H30" s="139"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A16:A25"/>
@@ -3735,62 +3841,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="79.140625" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="192" t="s">
-        <v>221</v>
+        <v>35</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="211" t="s">
+        <v>212</v>
       </c>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="82"/>
-    </row>
-    <row r="3" spans="1:6" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193"/>
+      <c r="G2" s="183"/>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="212"/>
       <c r="B3" s="68" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="73">
@@ -3800,16 +3911,17 @@
         <v>1200</v>
       </c>
       <c r="F3" s="81"/>
-    </row>
-    <row r="4" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="194" t="s">
-        <v>81</v>
+      <c r="G3" s="184"/>
+    </row>
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="213" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="66">
         <v>3</v>
@@ -3818,14 +3930,15 @@
         <v>50</v>
       </c>
       <c r="F4" s="82"/>
-    </row>
-    <row r="5" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="195"/>
+      <c r="G4" s="183"/>
+    </row>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="214"/>
       <c r="B5" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="26">
         <v>0</v>
@@ -3834,14 +3947,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="83"/>
-    </row>
-    <row r="6" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="195"/>
+      <c r="G5" s="185"/>
+    </row>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="214"/>
       <c r="B6" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="26">
         <v>0</v>
@@ -3850,14 +3964,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="83"/>
-    </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="195"/>
+      <c r="G6" s="185"/>
+    </row>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="214"/>
       <c r="B7" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="26">
         <v>0</v>
@@ -3866,14 +3981,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="83"/>
-    </row>
-    <row r="8" spans="1:6" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="195"/>
+      <c r="G7" s="185"/>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="214"/>
       <c r="B8" s="177" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -3882,16 +3998,17 @@
         <v>0</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="195"/>
+        <v>272</v>
+      </c>
+      <c r="G8" s="185"/>
+    </row>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="214"/>
       <c r="B9" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -3900,14 +4017,15 @@
         <v>0</v>
       </c>
       <c r="F9" s="83"/>
-    </row>
-    <row r="10" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="195"/>
+      <c r="G9" s="185"/>
+    </row>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="214"/>
       <c r="B10" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -3916,14 +4034,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="83"/>
-    </row>
-    <row r="11" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="195"/>
+      <c r="G10" s="185"/>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="214"/>
       <c r="B11" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -3932,14 +4051,15 @@
         <v>0</v>
       </c>
       <c r="F11" s="83"/>
-    </row>
-    <row r="12" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
+      <c r="G11" s="185"/>
+    </row>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="215"/>
       <c r="B12" s="70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" s="73">
         <v>0</v>
@@ -3948,16 +4068,17 @@
         <v>0</v>
       </c>
       <c r="F12" s="81"/>
-    </row>
-    <row r="13" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="200" t="s">
-        <v>92</v>
+      <c r="G12" s="184"/>
+    </row>
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="219" t="s">
+        <v>86</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="66">
         <v>0</v>
@@ -3966,14 +4087,15 @@
         <v>2</v>
       </c>
       <c r="F13" s="82"/>
-    </row>
-    <row r="14" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="200"/>
+      <c r="G13" s="183"/>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="219"/>
       <c r="B14" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D14" s="26">
         <v>0</v>
@@ -3983,14 +4105,15 @@
         <v>112</v>
       </c>
       <c r="F14" s="83"/>
-    </row>
-    <row r="15" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="200"/>
+      <c r="G14" s="185"/>
+    </row>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="219"/>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="26">
         <v>0</v>
@@ -3999,14 +4122,15 @@
         <v>0</v>
       </c>
       <c r="F15" s="83"/>
-    </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="200"/>
+      <c r="G15" s="185"/>
+    </row>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="219"/>
       <c r="B16" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -4015,14 +4139,15 @@
         <v>0</v>
       </c>
       <c r="F16" s="83"/>
-    </row>
-    <row r="17" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="200"/>
+      <c r="G16" s="185"/>
+    </row>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="219"/>
       <c r="B17" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" s="26">
         <v>0</v>
@@ -4031,14 +4156,15 @@
         <v>0</v>
       </c>
       <c r="F17" s="83"/>
-    </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="200"/>
+      <c r="G17" s="185"/>
+    </row>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="219"/>
       <c r="B18" s="24" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" s="26">
         <v>0</v>
@@ -4047,16 +4173,17 @@
         <v>0</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="200"/>
+        <v>273</v>
+      </c>
+      <c r="G18" s="185"/>
+    </row>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="219"/>
       <c r="B19" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="26">
         <v>0</v>
@@ -4065,14 +4192,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="83"/>
-    </row>
-    <row r="20" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="200"/>
+      <c r="G19" s="185"/>
+    </row>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="219"/>
       <c r="B20" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -4081,14 +4209,15 @@
         <v>10</v>
       </c>
       <c r="F20" s="83"/>
-    </row>
-    <row r="21" spans="1:6" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="200"/>
+      <c r="G20" s="185"/>
+    </row>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="219"/>
       <c r="B21" s="70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" s="73">
         <v>0</v>
@@ -4097,185 +4226,209 @@
         <v>1</v>
       </c>
       <c r="F21" s="81"/>
-    </row>
-    <row r="22" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="207" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="201" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
+      <c r="G21" s="184"/>
+    </row>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="220" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="208"/>
-      <c r="B23" s="205" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
+        <v>256</v>
+      </c>
+      <c r="G22" s="183"/>
+    </row>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="222"/>
+      <c r="B23" s="238" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="238"/>
+      <c r="D23" s="238"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="208"/>
-      <c r="B24" s="205" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="205"/>
-      <c r="D24" s="205"/>
+        <v>257</v>
+      </c>
+      <c r="G23" s="185"/>
+    </row>
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="222"/>
+      <c r="B24" s="238" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="238"/>
+      <c r="D24" s="238"/>
       <c r="E24" s="26" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="206" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
+        <v>258</v>
+      </c>
+      <c r="G24" s="185"/>
+    </row>
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="223"/>
+      <c r="B25" s="239" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
       <c r="E25" s="67">
         <v>6</v>
       </c>
       <c r="F25" s="178" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="195" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="216" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
+        <v>271</v>
+      </c>
+      <c r="G25" s="184"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="233" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="234"/>
+      <c r="D26" s="235"/>
       <c r="E26" s="79" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="183"/>
+    </row>
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="214"/>
+      <c r="B27" s="216" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="78" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="23" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="195"/>
-      <c r="B27" s="197" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="78" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195"/>
-      <c r="B28" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199"/>
+      <c r="G27" s="196"/>
+    </row>
+    <row r="28" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="214"/>
+      <c r="B28" s="216" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
       <c r="E28" s="27" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="23" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="195"/>
-      <c r="B29" s="197" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="199"/>
+        <v>204</v>
+      </c>
+      <c r="G28" s="236" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="214"/>
+      <c r="B29" s="216" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
       <c r="E29" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F29" s="83" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="195"/>
-      <c r="B30" s="202" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="203"/>
-      <c r="D30" s="204"/>
+        <v>196</v>
+      </c>
+      <c r="G29" s="237"/>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="214"/>
+      <c r="B30" s="227" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="228"/>
+      <c r="D30" s="229"/>
       <c r="E30" s="26" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F30" s="84" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="195"/>
-      <c r="B31" s="210" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="211"/>
-      <c r="D31" s="212"/>
+        <v>245</v>
+      </c>
+      <c r="G30" s="195" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="214"/>
+      <c r="B31" s="224" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="225"/>
+      <c r="D31" s="226"/>
       <c r="E31" s="26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="195"/>
-      <c r="B32" s="202" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
+        <v>31</v>
+      </c>
+      <c r="G31" s="196"/>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="214"/>
+      <c r="B32" s="227" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
       <c r="E32" s="27" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="F32" s="83"/>
-    </row>
-    <row r="33" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="196"/>
-      <c r="B33" s="213" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="214"/>
-      <c r="D33" s="215"/>
+      <c r="G32" s="196"/>
+    </row>
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="215"/>
+      <c r="B33" s="230" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
       <c r="E33" s="67" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>189</v>
+      </c>
+      <c r="G33" s="184"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="G28:G29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="B29:D29"/>
@@ -4283,224 +4436,243 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G28" r:id="rId1"/>
+    <hyperlink ref="G30" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="75.5703125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="4" max="4" width="75.5546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="47" style="29" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="219" t="s">
-        <v>126</v>
+    <row r="2" spans="1:9" s="31" customFormat="1" ht="35.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="240" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="142" t="s">
-        <v>120</v>
-      </c>
       <c r="D2" s="141" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E2" s="143" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="144"/>
+        <v>242</v>
+      </c>
+      <c r="F2" s="186"/>
       <c r="G2" s="144"/>
       <c r="H2" s="144"/>
-    </row>
-    <row r="3" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="220"/>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="241"/>
       <c r="B3" s="32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>121</v>
+        <v>196</v>
+      </c>
+      <c r="F3" s="243" t="s">
+        <v>279</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="31" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="220"/>
+        <v>115</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="31" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="241"/>
       <c r="B4" s="32" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="36"/>
+        <v>206</v>
+      </c>
+      <c r="F4" s="244"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="220"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" s="31" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="241"/>
       <c r="B5" s="32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="F5" s="197" t="s">
+        <v>282</v>
+      </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="220"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="241"/>
       <c r="B6" s="32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="F6" s="187"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="220"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="241"/>
       <c r="B7" s="32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D7" s="32">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="36"/>
+        <v>31</v>
+      </c>
+      <c r="F7" s="187"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="220"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="241"/>
       <c r="B8" s="32" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>CONCATENATE(parameters!D15, "/IPDB_folder")</f>
-        <v>/path/to/folder/IDSL.UFA/IPDB_folder</v>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder</v>
       </c>
       <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="221"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="242"/>
       <c r="B9" s="146" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C9" s="147" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D9" s="146" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E9" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="146"/>
+        <v>189</v>
+      </c>
+      <c r="F9" s="188"/>
       <c r="G9" s="146"/>
       <c r="H9" s="146"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I9" s="146"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4510,256 +4682,258 @@
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C7:C11"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="39" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
-        <v>186</v>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="246" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C2" s="150" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D2" s="151" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="224"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="247"/>
       <c r="B3" s="62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>234</v>
+        <v>139</v>
+      </c>
+      <c r="D3" s="64" t="str">
+        <f>parameters!D5</f>
+        <v>/path/to/folder//MS1/IDSL.UFA/IPDB_folder/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="224"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="247"/>
       <c r="B4" s="62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="224"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="247"/>
       <c r="B5" s="62" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225"/>
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="248"/>
       <c r="B6" s="153" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C6" s="154" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" s="155">
-        <v>20</v>
+        <f>parameters!D10</f>
+        <v>1</v>
       </c>
       <c r="E6" s="156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
-        <v>34</v>
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="205" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="D7" s="103" t="str">
         <f>parameters!D11</f>
-        <v>/MS1/</v>
+        <v>/path/to/folder//MS1</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="206"/>
       <c r="B8" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>parameters!D12</f>
         <v>All</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="206"/>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="11" t="str">
         <f>parameters!D13</f>
         <v>mzML</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="206"/>
       <c r="B10" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="207"/>
       <c r="B11" s="113" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C11" s="114" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="D11" s="115" t="str">
         <f>parameters!D15</f>
-        <v>/path/to/folder/IDSL.UFA</v>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E11" s="116"/>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
-        <v>149</v>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="198" t="s">
+        <v>142</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E12" s="112" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="199"/>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="12">
         <v>0.01</v>
@@ -4771,123 +4945,123 @@
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="199"/>
       <c r="B14" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D14" s="12">
         <v>0.1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="199"/>
       <c r="B15" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="199"/>
       <c r="B16" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="D16" s="12">
         <v>950</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="199"/>
       <c r="B17" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="226"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="249"/>
       <c r="B18" s="161" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C18" s="162" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D18" s="163">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E18" s="164" t="s">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
-        <v>153</v>
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="250" t="s">
+        <v>145</v>
       </c>
       <c r="B19" s="157" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C19" s="158" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E19" s="160" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="228"/>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="251"/>
       <c r="B20" s="50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D20" s="52"/>
       <c r="E20" s="53" t="s">
@@ -4897,67 +5071,67 @@
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="228"/>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="251"/>
       <c r="B21" s="50" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="228"/>
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="251"/>
       <c r="B22" s="50" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="228"/>
+    <row r="23" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="251"/>
       <c r="B23" s="50" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D23" s="52">
         <v>50000</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="229"/>
+    <row r="24" spans="1:8" s="40" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="252"/>
       <c r="B24" s="165" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D24" s="167">
         <v>10</v>
@@ -4969,8 +5143,8 @@
       <c r="G24" s="57"/>
       <c r="H24" s="57"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="31.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="245"/>
       <c r="B25" s="59"/>
       <c r="C25" s="40"/>
       <c r="D25" s="57"/>
@@ -4979,8 +5153,8 @@
       <c r="G25" s="57"/>
       <c r="H25" s="57"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="245"/>
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="61"/>
@@ -4989,8 +5163,8 @@
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
     </row>
-    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
+    <row r="27" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="245"/>
       <c r="B27" s="59"/>
       <c r="C27" s="40"/>
       <c r="D27" s="57"/>
@@ -5014,288 +5188,306 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
     <col min="3" max="3" width="52" style="29" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="66.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="47" style="29" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="4" max="4" width="76.44140625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="66.88671875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="47" style="29" customWidth="1"/>
+    <col min="9" max="9" width="49.33203125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="H1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
-        <v>34</v>
+    <row r="2" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="205" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="233" t="s">
-        <v>38</v>
+      <c r="C2" s="179" t="s">
+        <v>285</v>
       </c>
       <c r="D2" s="101" t="str">
         <f>parameters!D11</f>
-        <v>/MS1/</v>
-      </c>
-      <c r="E2" s="235"/>
-      <c r="F2" s="103"/>
+        <v>/path/to/folder//MS1</v>
+      </c>
+      <c r="E2" s="181"/>
+      <c r="F2" s="189"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
+      <c r="I2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="206"/>
       <c r="B3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="233" t="s">
-        <v>33</v>
+      <c r="C3" s="179" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="101" t="str">
         <f>parameters!D12</f>
         <v>All</v>
       </c>
-      <c r="E3" s="235" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="11"/>
+      <c r="E3" s="181" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="189"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="187"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="206"/>
       <c r="B4" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="233" t="s">
-        <v>31</v>
+      <c r="C4" s="179" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="101" t="str">
         <f>parameters!D13</f>
         <v>mzML</v>
       </c>
-      <c r="E4" s="235" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="11"/>
+      <c r="E4" s="181" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="189"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="187"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="206"/>
       <c r="B5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="233" t="s">
-        <v>86</v>
+      <c r="C5" s="179" t="s">
+        <v>287</v>
       </c>
       <c r="D5" s="101" t="str">
         <f>parameters!D14</f>
         <v>/peaklists</v>
       </c>
-      <c r="E5" s="235" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="11"/>
+      <c r="E5" s="181" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="189"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="207"/>
       <c r="B6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="234" t="s">
-        <v>30</v>
+      <c r="C6" s="180" t="s">
+        <v>286</v>
       </c>
       <c r="D6" s="113" t="str">
         <f>parameters!D15</f>
-        <v>/path/to/folder/IDSL.UFA</v>
-      </c>
-      <c r="E6" s="236" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="115"/>
+        <v>/path/to/folder//MS1/IDSL.UFA</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="190"/>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
-    </row>
-    <row r="7" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="230" t="s">
-        <v>136</v>
+      <c r="I6" s="115"/>
+    </row>
+    <row r="7" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="253" t="s">
+        <v>129</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C7" s="170" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E7" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="172"/>
+        <v>194</v>
+      </c>
+      <c r="F7" s="191"/>
       <c r="G7" s="172"/>
       <c r="H7" s="172"/>
-    </row>
-    <row r="8" spans="1:8" s="31" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="231"/>
+      <c r="I7" s="172"/>
+    </row>
+    <row r="8" spans="1:9" s="31" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="254"/>
       <c r="B8" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="45"/>
+        <v>241</v>
+      </c>
+      <c r="F8" s="192"/>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="231"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="254"/>
       <c r="B9" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D9" s="42">
         <v>0.1</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="45"/>
+        <v>195</v>
+      </c>
+      <c r="F9" s="192"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="231"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="254"/>
       <c r="B10" s="42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="45"/>
+        <v>89</v>
+      </c>
+      <c r="F10" s="192"/>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="254"/>
       <c r="B11" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D11" s="46">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>121</v>
+        <v>196</v>
+      </c>
+      <c r="F11" s="256" t="s">
+        <v>279</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="231"/>
+        <v>115</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="31" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="254"/>
       <c r="B12" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="48"/>
+        <v>206</v>
+      </c>
+      <c r="F12" s="257"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="231"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" s="31" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="254"/>
       <c r="B13" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" s="48"/>
+        <v>245</v>
+      </c>
+      <c r="F13" s="192"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="231"/>
+      <c r="I13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="254"/>
       <c r="B14" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D14" s="42">
         <v>0.01</v>
@@ -5303,71 +5495,79 @@
       <c r="E14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="193"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="231"/>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="254"/>
       <c r="B15" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D15" s="42">
         <v>30</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="48"/>
+        <v>31</v>
+      </c>
+      <c r="F15" s="193"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="254"/>
       <c r="B16" s="42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F16" s="48"/>
+        <v>105</v>
+      </c>
+      <c r="F16" s="193"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="232"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" s="31" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="255"/>
       <c r="B17" s="173" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C17" s="174" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D17" s="173" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="175" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="F17" s="194"/>
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I17" s="176"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
+++ b/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -326,9 +326,6 @@
     <t>PARAM0025</t>
   </si>
   <si>
-    <t>"YES" OR "NO"</t>
-  </si>
-  <si>
     <t>FS0001</t>
   </si>
   <si>
@@ -1455,9 +1452,6 @@
     </r>
   </si>
   <si>
-    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Address of a </t>
     </r>
@@ -1712,6 +1706,48 @@
   </si>
   <si>
     <t>c(1e30, 1e-12, 100)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
   </si>
 </sst>
 </file>
@@ -3494,21 +3530,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3525,10 +3561,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
@@ -3536,57 +3572,57 @@
         <v>0</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="F2" s="229" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="230"/>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="230"/>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D3, "/", formula_source!D4, ".Rdata")</f>
@@ -3597,61 +3633,61 @@
       </c>
       <c r="F5" s="231"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220"/>
       <c r="B8" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="198" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="199" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="200" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F8" s="201"/>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="88">
         <v>1</v>
@@ -3661,7 +3697,7 @@
       </c>
       <c r="F9" s="163"/>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
@@ -3669,21 +3705,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="164"/>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>67</v>
@@ -3693,73 +3729,73 @@
       </c>
       <c r="F11" s="165"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="165"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="191" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="193" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" s="165"/>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="176" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="177" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F14" s="165"/>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="203" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" s="204" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="166"/>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>14</v>
@@ -3771,81 +3807,81 @@
         <v>83</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F16" s="167"/>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="91" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F18" s="190"/>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="12">
         <v>0.01</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="161"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="161"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="12">
         <v>950</v>
@@ -3855,7 +3891,7 @@
       </c>
       <c r="F21" s="161"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -3870,120 +3906,120 @@
         <v>22</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F23" s="228"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="168"/>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="135">
         <v>0</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="169"/>
     </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="103" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26" s="170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="171" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="172" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="172" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="99">
         <v>50</v>
@@ -3993,13 +4029,13 @@
       </c>
       <c r="F29" s="173"/>
     </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="75">
         <v>20</v>
@@ -4009,23 +4045,23 @@
       </c>
       <c r="F30" s="174"/>
     </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="111" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:A28"/>
@@ -4054,19 +4090,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4074,7 +4110,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>84</v>
@@ -4086,12 +4122,12 @@
         <v>27</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4104,7 +4140,7 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="233"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
@@ -4119,7 +4155,7 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="234" t="s">
         <v>69</v>
       </c>
@@ -4138,7 +4174,7 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="235"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
@@ -4155,7 +4191,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="235"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
@@ -4172,7 +4208,7 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="235"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
@@ -4189,10 +4225,10 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="235"/>
       <c r="B8" s="130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>75</v>
@@ -4205,11 +4241,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="235"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -4226,7 +4262,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="235"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
@@ -4243,7 +4279,7 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="235"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
@@ -4260,7 +4296,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="236"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
@@ -4277,7 +4313,7 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="240" t="s">
         <v>77</v>
       </c>
@@ -4296,7 +4332,7 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="240"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
@@ -4314,7 +4350,7 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="240"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
@@ -4331,7 +4367,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="240"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
@@ -4348,7 +4384,7 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="240"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
@@ -4365,10 +4401,10 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="240"/>
       <c r="B18" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>76</v>
@@ -4381,11 +4417,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="240"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
@@ -4402,7 +4438,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="240"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
@@ -4419,7 +4455,7 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="240"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
@@ -4436,12 +4472,12 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="245" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="241" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="241"/>
       <c r="D22" s="241"/>
@@ -4449,14 +4485,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="246"/>
       <c r="B23" s="267" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" s="267"/>
       <c r="D23" s="267"/>
@@ -4464,11 +4500,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="246"/>
       <c r="B24" s="267" t="s">
         <v>87</v>
@@ -4476,17 +4512,17 @@
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
       <c r="E24" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="246"/>
       <c r="B25" s="251" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="252"/>
       <c r="D25" s="253"/>
@@ -4494,14 +4530,14 @@
         <v>6</v>
       </c>
       <c r="F25" s="195" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G25" s="196"/>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="247"/>
       <c r="B26" s="268" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="268"/>
       <c r="D26" s="268"/>
@@ -4509,13 +4545,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="260" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="257" t="s">
         <v>49</v>
@@ -4526,11 +4562,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="261"/>
       <c r="B28" s="242" t="s">
         <v>50</v>
@@ -4541,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" s="133"/>
     </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A29" s="260" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29" s="237" t="s">
         <v>88</v>
@@ -4555,19 +4591,19 @@
       <c r="C29" s="238"/>
       <c r="D29" s="239"/>
       <c r="E29" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G29" s="265" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="240"/>
       <c r="B30" s="262" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C30" s="263"/>
       <c r="D30" s="264"/>
@@ -4575,33 +4611,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="266"/>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="261"/>
       <c r="B31" s="254" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="255"/>
       <c r="D31" s="256"/>
       <c r="E31" s="57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F31" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="260" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="248" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" s="249"/>
       <c r="D32" s="250"/>
@@ -4613,10 +4649,10 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="240"/>
       <c r="B33" s="251" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="252"/>
       <c r="D33" s="253"/>
@@ -4627,22 +4663,22 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="261"/>
       <c r="B34" s="254" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="255"/>
       <c r="D34" s="256"/>
       <c r="E34" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="G29:G30"/>
@@ -4682,21 +4718,21 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4713,34 +4749,34 @@
         <v>26</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="271" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="205" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F2" s="206"/>
     </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272"/>
       <c r="B3" s="84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="84" t="str">
         <f>enumerated_chemical_space!E33</f>
@@ -4749,31 +4785,31 @@
       <c r="E3" s="205"/>
       <c r="F3" s="207"/>
     </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="273"/>
       <c r="B4" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="208" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="209"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="274" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="209"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="274" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>96</v>
-      </c>
       <c r="C5" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="113">
         <v>1</v>
@@ -4783,93 +4819,93 @@
       </c>
       <c r="F5" s="211"/>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="275"/>
       <c r="B6" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="113" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="212"/>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="275"/>
       <c r="B7" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="114" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="212" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="275"/>
       <c r="B8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" s="269" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="275"/>
       <c r="B9" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="270"/>
     </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="276"/>
       <c r="B10" s="117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E10" s="210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="213" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4894,22 +4930,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="80" t="s">
         <v>28</v>
@@ -4927,167 +4963,167 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="277" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="278"/>
       <c r="B3" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="48" t="str">
         <f>parameters!D5</f>
         <v>/path/to/folder//MS1/IDSL.UFA/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="279"/>
       <c r="B4" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="148" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="280"/>
       <c r="B5" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="84" t="str">
         <f>parameters!D10</f>
         <v>/path/to/folder//MS1</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="139" t="str">
         <f>parameters!D12</f>
         <v>/peaklists</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="281"/>
       <c r="B9" s="93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="91">
         <f>parameters!D9</f>
@@ -5100,69 +5136,69 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="283"/>
       <c r="B11" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="91">
         <v>0.1</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="283"/>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="12">
         <f>parameters!D19</f>
         <v>0.01</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="283"/>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="12">
         <f>parameters!D20</f>
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="283"/>
       <c r="B14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="12">
         <f>parameters!D21</f>
@@ -5175,10 +5211,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="283"/>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>68</v>
@@ -5194,70 +5230,70 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="284"/>
       <c r="B16" s="126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="128">
         <f>parameters!D23</f>
         <v>5</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="287" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="178" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="181" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="181" t="s">
-        <v>109</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="288"/>
       <c r="B18" s="155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="285" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="182" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="183" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="184">
         <f>D10</f>
@@ -5270,67 +5306,67 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="285"/>
       <c r="B20" s="186" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="188" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="187" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="285"/>
       <c r="B21" s="186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D21" s="188" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="187" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="285"/>
       <c r="B22" s="186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="189" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="188">
         <v>50000</v>
       </c>
       <c r="E22" s="187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="286"/>
       <c r="B23" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="153">
         <v>10</v>
@@ -5342,7 +5378,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5352,7 +5388,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5362,7 +5398,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>

--- a/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
+++ b/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IDSL.Github\IDSL.UFA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.UFA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -326,6 +326,9 @@
     <t>PARAM0025</t>
   </si>
   <si>
+    <t>"YES" OR "NO"</t>
+  </si>
+  <si>
     <t>FS0001</t>
   </si>
   <si>
@@ -1452,6 +1455,9 @@
     </r>
   </si>
   <si>
+    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Address of a </t>
     </r>
@@ -1706,48 +1712,6 @@
   </si>
   <si>
     <t>c(1e30, 1e-12, 100)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
   </si>
 </sst>
 </file>
@@ -3530,21 +3494,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3561,10 +3525,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
@@ -3572,57 +3536,57 @@
         <v>0</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="F2" s="229" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" s="230"/>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F4" s="230"/>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D3, "/", formula_source!D4, ".Rdata")</f>
@@ -3633,61 +3597,61 @@
       </c>
       <c r="F5" s="231"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="220"/>
       <c r="B8" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="198" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="199" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="200" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F8" s="201"/>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" s="88">
         <v>1</v>
@@ -3697,7 +3661,7 @@
       </c>
       <c r="F9" s="163"/>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
@@ -3705,21 +3669,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="85"/>
       <c r="F10" s="164"/>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>67</v>
@@ -3729,73 +3693,73 @@
       </c>
       <c r="F11" s="165"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F12" s="165"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="191" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E13" s="193" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F13" s="165"/>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="175" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="176" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="177" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F14" s="165"/>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="202" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" s="203" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E15" s="204" t="s">
         <v>80</v>
       </c>
       <c r="F15" s="166"/>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="214" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>14</v>
@@ -3807,81 +3771,81 @@
         <v>83</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F16" s="167"/>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D18" s="91" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F18" s="190"/>
     </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D19" s="12">
         <v>0.01</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="161"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F20" s="161"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D21" s="12">
         <v>950</v>
@@ -3891,7 +3855,7 @@
       </c>
       <c r="F21" s="161"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -3906,120 +3870,120 @@
         <v>22</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F23" s="228"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="168"/>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25" s="135">
         <v>0</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F25" s="169"/>
     </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D26" s="103" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F26" s="170" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F27" s="171" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D28" s="107" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F28" s="172" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="99">
         <v>50</v>
@@ -4029,13 +3993,13 @@
       </c>
       <c r="F29" s="173"/>
     </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D30" s="75">
         <v>20</v>
@@ -4045,23 +4009,23 @@
       </c>
       <c r="F30" s="174"/>
     </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D31" s="111" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A16:A28"/>
@@ -4090,19 +4054,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4110,7 +4074,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>84</v>
@@ -4122,12 +4086,12 @@
         <v>27</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="232" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4140,7 +4104,7 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="233"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
@@ -4155,7 +4119,7 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="234" t="s">
         <v>69</v>
       </c>
@@ -4174,7 +4138,7 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="235"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
@@ -4191,7 +4155,7 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="235"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
@@ -4208,7 +4172,7 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="235"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
@@ -4225,10 +4189,10 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="235"/>
       <c r="B8" s="130" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>75</v>
@@ -4241,11 +4205,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="235"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -4262,7 +4226,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="235"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
@@ -4279,7 +4243,7 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="235"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
@@ -4296,7 +4260,7 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="236"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
@@ -4313,7 +4277,7 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="240" t="s">
         <v>77</v>
       </c>
@@ -4332,7 +4296,7 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="240"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
@@ -4350,7 +4314,7 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="240"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
@@ -4367,7 +4331,7 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="240"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
@@ -4384,7 +4348,7 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="240"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
@@ -4401,10 +4365,10 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="240"/>
       <c r="B18" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>76</v>
@@ -4417,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="240"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
@@ -4438,7 +4402,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="240"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
@@ -4455,7 +4419,7 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="240"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
@@ -4472,12 +4436,12 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="245" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" s="241" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C22" s="241"/>
       <c r="D22" s="241"/>
@@ -4485,14 +4449,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="246"/>
       <c r="B23" s="267" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" s="267"/>
       <c r="D23" s="267"/>
@@ -4500,11 +4464,11 @@
         <v>1</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="246"/>
       <c r="B24" s="267" t="s">
         <v>87</v>
@@ -4512,17 +4476,17 @@
       <c r="C24" s="267"/>
       <c r="D24" s="267"/>
       <c r="E24" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="246"/>
       <c r="B25" s="251" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" s="252"/>
       <c r="D25" s="253"/>
@@ -4530,14 +4494,14 @@
         <v>6</v>
       </c>
       <c r="F25" s="195" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G25" s="196"/>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="247"/>
       <c r="B26" s="268" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C26" s="268"/>
       <c r="D26" s="268"/>
@@ -4545,13 +4509,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="260" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" s="257" t="s">
         <v>49</v>
@@ -4562,11 +4526,11 @@
         <v>1</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="261"/>
       <c r="B28" s="242" t="s">
         <v>50</v>
@@ -4577,13 +4541,13 @@
         <v>1</v>
       </c>
       <c r="F28" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="133"/>
+    </row>
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="260" t="s">
         <v>208</v>
-      </c>
-      <c r="G28" s="133"/>
-    </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="260" t="s">
-        <v>207</v>
       </c>
       <c r="B29" s="237" t="s">
         <v>88</v>
@@ -4591,19 +4555,19 @@
       <c r="C29" s="238"/>
       <c r="D29" s="239"/>
       <c r="E29" s="63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G29" s="265" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="240"/>
       <c r="B30" s="262" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" s="263"/>
       <c r="D30" s="264"/>
@@ -4611,33 +4575,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G30" s="266"/>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="261"/>
       <c r="B31" s="254" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31" s="255"/>
       <c r="D31" s="256"/>
       <c r="E31" s="57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F31" s="131" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G31" s="145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="260" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B32" s="248" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" s="249"/>
       <c r="D32" s="250"/>
@@ -4649,10 +4613,10 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="240"/>
       <c r="B33" s="251" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C33" s="252"/>
       <c r="D33" s="253"/>
@@ -4663,22 +4627,22 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="261"/>
       <c r="B34" s="254" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="255"/>
       <c r="D34" s="256"/>
       <c r="E34" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="G29:G30"/>
@@ -4718,21 +4682,21 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="29"/>
+    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4749,34 +4713,34 @@
         <v>26</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="271" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="205" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F2" s="206"/>
     </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="272"/>
       <c r="B3" s="84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="84" t="str">
         <f>enumerated_chemical_space!E33</f>
@@ -4785,31 +4749,31 @@
       <c r="E3" s="205"/>
       <c r="F3" s="207"/>
     </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="273"/>
       <c r="B4" s="95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" s="208" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F4" s="209"/>
     </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="274" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D5" s="113">
         <v>1</v>
@@ -4819,93 +4783,93 @@
       </c>
       <c r="F5" s="211"/>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="275"/>
       <c r="B6" s="113" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D6" s="113" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F6" s="212"/>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="275"/>
       <c r="B7" s="113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" s="115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" s="212" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
       <c r="A8" s="275"/>
       <c r="B8" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F8" s="269" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="275"/>
       <c r="B9" s="32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F9" s="270"/>
     </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="276"/>
       <c r="B10" s="117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E10" s="210" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" s="213" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4930,22 +4894,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="80" t="s">
         <v>28</v>
@@ -4963,167 +4927,167 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="277" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="278"/>
       <c r="B3" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D3" s="48" t="str">
         <f>parameters!D5</f>
         <v>/path/to/folder//MS1/IDSL.UFA/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="279"/>
       <c r="B4" s="146" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="148" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="149" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="280"/>
       <c r="B5" s="123" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="84" t="str">
         <f>parameters!D10</f>
         <v>/path/to/folder//MS1</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="139" t="str">
         <f>parameters!D12</f>
         <v>/peaklists</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="281"/>
       <c r="B9" s="93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="282" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="91">
         <f>parameters!D9</f>
@@ -5136,69 +5100,69 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="283"/>
       <c r="B11" s="91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" s="91">
         <v>0.1</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="283"/>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D12" s="12">
         <f>parameters!D19</f>
         <v>0.01</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="283"/>
       <c r="B13" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D13" s="12">
         <f>parameters!D20</f>
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="283"/>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D14" s="12">
         <f>parameters!D21</f>
@@ -5211,10 +5175,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="283"/>
       <c r="B15" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>68</v>
@@ -5230,70 +5194,70 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="284"/>
       <c r="B16" s="126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D16" s="128">
         <f>parameters!D23</f>
         <v>5</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="287" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" s="178" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="179" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="180" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" s="181" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="288"/>
       <c r="B18" s="155" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="158" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="285" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="182" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="183" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D19" s="184">
         <f>D10</f>
@@ -5306,67 +5270,67 @@
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="285"/>
       <c r="B20" s="186" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="187" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D20" s="188" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" s="187" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="285"/>
       <c r="B21" s="186" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="187" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D21" s="188" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" s="187" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="285"/>
       <c r="B22" s="186" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C22" s="189" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D22" s="188">
         <v>50000</v>
       </c>
       <c r="E22" s="187" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="286"/>
       <c r="B23" s="151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D23" s="153">
         <v>10</v>
@@ -5378,7 +5342,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5388,7 +5352,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5398,7 +5362,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>

--- a/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
+++ b/IDSL.UFA/inst/extdata/UFA_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9168" tabRatio="578"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="9165" tabRatio="578" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="276">
   <si>
     <t>PARAM0001</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>PARAM0025</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO"</t>
   </si>
   <si>
     <t>FS0001</t>
@@ -1455,7 +1452,252 @@
     </r>
   </si>
   <si>
-    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow.</t>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or fill when "YES" is selected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Default = 6. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count Na and K elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
+  </si>
+  <si>
+    <t>Rule 5 (Potassium and sodium rule ((na+k) &lt;= 1))</t>
+  </si>
+  <si>
+    <t>Default = TRUE or FALSE, [M+Na/K]+ ionization pathways usually occur in ESI positive mode. This rule assumes either [M+Na]+ or [M+K]+ ion occurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Essential elements"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Ex: "c &gt;= si"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use a constant value or a piece of R script using elements in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Essential elements'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 1 Fill when "TopRank" is selected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SFT0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This file may be derived from PARAM0004 parameter in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>' tab</t>
+    </r>
+  </si>
+  <si>
+    <t>/path/to/folder//MS1/IDSL.UFA</t>
+  </si>
+  <si>
+    <t>"YES" OR "NO" (When "YES", fill out PARAM0015-PARAM0027)</t>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO" (When "YES", fill out PARAM0028-PARAM0030) (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IPDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is not required)</t>
+    </r>
+  </si>
+  <si>
+    <t>"YES" OR "NO" (When "YES", fill out parameters in the 'score_function_optimization' tab)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"All" or a vector of comma separated IDSL.IPA peak ID indices </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ONLY when one HRMS file was selected in PARAM0010</t>
+    </r>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>c(1e30, 1e-12, 100)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"YES" OR "NO". When "YES", select "YES" for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARAM0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Address of the `peaklists` directory generated by the IDSL.IPA workflow</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/Score-Coefficients-Optimization</t>
   </si>
   <si>
     <r>
@@ -1493,7 +1735,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files may have a second column for retention time values in minutes to match peaks using retention times as well. Do not use headers for the </t>
+      <t xml:space="preserve"> files may also have a second column for retention time values in minutes to match peaks using retention times. Do not use headers for the </t>
     </r>
     <r>
       <rPr>
@@ -1514,211 +1756,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or fill when "YES" is selected for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PARAM0017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Default = 6. 95% of realistic molecular formulas have ≤ 6 elements. This rule does not count Na and K elements. Suggested to use values between [1-14]. Example: the maximum number of elements for glucose (C6H12O6) is three (C, H, and O)</t>
-  </si>
-  <si>
-    <t>Rule 5 (Potassium and sodium rule ((na+k) &lt;= 1))</t>
-  </si>
-  <si>
-    <t>Default = TRUE or FALSE, [M+Na/K]+ ionization pathways usually occur in ESI positive mode. This rule assumes either [M+Na]+ or [M+K]+ ion occurs.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Default =TRUE, This condition is used to regulate molecular formula enumeration using only </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Essential elements"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Ex: "c &gt;= si"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Use a constant value or a piece of R script using elements in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Essential elements'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> section. For example, to preserve 13C isotoplogues in sulfonated/siliconated compounds, you should use "if (s&gt;0 &amp; si&gt;0) {min(c(c, 10, si*3, s*4))} else if (s&gt;0 &amp; si==0) {min(c(c, 10, s*4))} else if (s==0 &amp; si&gt;0) {min(c(c, 10, si*3))} else if (s==0 &amp; si==0) {min(c(c, 5))}"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥ 1 Fill when "TopRank" is selected for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SFT0016</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This file may be derived from PARAM0004 parameter in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>' tab</t>
-    </r>
-  </si>
-  <si>
-    <t>/path/to/folder//MS1/IDSL.UFA</t>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", fill out PARAM0015-PARAM0027)</t>
-  </si>
-  <si>
-    <r>
-      <t>"YES" OR "NO" (When "YES", fill out PARAM0028-PARAM0030) (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IPDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> is not required)</t>
-    </r>
-  </si>
-  <si>
-    <t>"YES" OR "NO" (When "YES", fill out parameters in the 'score_function_optimization' tab)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">"All" or a vector of comma separated IDSL.IPA peak ID indices </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ONLY when one HRMS file was selected in PARAM0010</t>
-    </r>
-  </si>
-  <si>
-    <t>0-100</t>
-  </si>
-  <si>
-    <t>c(1e30, 1e-12, 100)</t>
+    <t>https://github.com/idslme/IDSL.UFA/wiki/NEME-PCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1851,6 +1896,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2347,7 +2399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2823,9 +2875,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2833,12 +2882,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,6 +3019,15 @@
     <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3029,6 +3081,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3054,9 +3181,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3077,69 +3201,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3492,23 +3553,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="87.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="75.44140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="73.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -3525,10 +3586,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="219" t="s">
         <v>23</v>
       </c>
@@ -3536,57 +3597,57 @@
         <v>0</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="79" t="s">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="F2" s="229" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="220"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="230"/>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="220"/>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="230"/>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="220"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D5" s="13" t="str">
         <f>CONCATENATE(formula_source!D3, "/", formula_source!D4, ".Rdata")</f>
@@ -3597,61 +3658,61 @@
       </c>
       <c r="F5" s="231"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="220"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" s="162"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="220"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F7" s="162"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="220"/>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="198" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="199" t="s">
+      <c r="C8" s="195" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="200" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="201"/>
-    </row>
-    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="197" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="198"/>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="220"/>
       <c r="B9" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="88">
         <v>1</v>
@@ -3659,9 +3720,11 @@
       <c r="E9" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="163"/>
-    </row>
-    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="213" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="221" t="s">
         <v>25</v>
       </c>
@@ -3669,21 +3732,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="85"/>
-      <c r="F10" s="164"/>
-    </row>
-    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="163"/>
+    </row>
+    <row r="11" spans="1:6" s="28" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="222"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>67</v>
@@ -3691,75 +3754,75 @@
       <c r="E11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="165"/>
-    </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="164"/>
+    </row>
+    <row r="12" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="222"/>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="165"/>
-    </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F12" s="164"/>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="223"/>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="188" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="189" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="190" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="192" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="193" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" s="165"/>
-    </row>
-    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="164"/>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="223"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="175" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="176" t="s">
+      <c r="C14" s="172" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="177" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="165"/>
-    </row>
-    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="164"/>
+    </row>
+    <row r="15" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="223"/>
       <c r="B15" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="202" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="203" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="204" t="s">
+      <c r="C15" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="166"/>
-    </row>
-    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="165"/>
+    </row>
+    <row r="16" spans="1:6" s="28" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="214" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="89" t="s">
         <v>14</v>
@@ -3771,81 +3834,85 @@
         <v>83</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="167"/>
-    </row>
-    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="F16" s="212" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="28" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="215"/>
       <c r="B17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="28" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
       <c r="B18" s="89" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" s="91" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="190"/>
-    </row>
-    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="F18" s="187"/>
+    </row>
+    <row r="19" spans="1:6" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="216"/>
       <c r="B19" s="89" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19" s="12">
         <v>0.01</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="161"/>
-    </row>
-    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="F19" s="232" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="28" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="216"/>
       <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="12">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="161"/>
-    </row>
-    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="F20" s="233"/>
+    </row>
+    <row r="21" spans="1:6" s="28" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="216"/>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="12">
         <v>950</v>
@@ -3853,9 +3920,9 @@
       <c r="E21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="161"/>
-    </row>
-    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="234"/>
+    </row>
+    <row r="22" spans="1:6" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="216"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -3870,120 +3937,122 @@
         <v>22</v>
       </c>
       <c r="F22" s="227" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="216"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D23" s="12">
         <v>5</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F23" s="228"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="216"/>
       <c r="B24" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="168"/>
-    </row>
-    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="211" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="28" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="217"/>
       <c r="B25" s="136" t="s">
         <v>90</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="135">
         <v>0</v>
       </c>
       <c r="E25" s="160" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="169"/>
-    </row>
-    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="F25" s="166"/>
+    </row>
+    <row r="26" spans="1:6" s="28" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="217"/>
       <c r="B26" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="103" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="159" t="s">
-        <v>254</v>
-      </c>
-      <c r="F26" s="170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="F26" s="167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="217"/>
       <c r="B27" s="104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="69" t="s">
         <v>73</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="171" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+      <c r="F27" s="168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="36" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="218"/>
       <c r="B28" s="105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="F28" s="172" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:6" s="28" customFormat="1" ht="26.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="224" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="99">
         <v>50</v>
@@ -3991,15 +4060,15 @@
       <c r="E29" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="173"/>
-    </row>
-    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="170"/>
+    </row>
+    <row r="30" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="225"/>
       <c r="B30" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="75">
         <v>20</v>
@@ -4007,41 +4076,46 @@
       <c r="E30" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="174"/>
-    </row>
-    <row r="31" spans="1:6" s="28" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="171"/>
+    </row>
+    <row r="31" spans="1:6" s="28" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="226"/>
       <c r="B31" s="109" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="111" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="112" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F31" s="133"/>
     </row>
-    <row r="32" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A16:A28"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F22" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F26" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="F24" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F19" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4049,24 +4123,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="22" customWidth="1"/>
     <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="21" customWidth="1"/>
     <col min="5" max="5" width="58" style="21" customWidth="1"/>
-    <col min="6" max="6" width="80.44140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="80.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4074,7 +4148,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>84</v>
@@ -4086,12 +4160,12 @@
         <v>27</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="232" t="s">
-        <v>152</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="23" customFormat="1" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="257" t="s">
+        <v>151</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4104,8 +4178,8 @@
       <c r="F2" s="66"/>
       <c r="G2" s="132"/>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="233"/>
+    <row r="3" spans="1:7" s="23" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="258"/>
       <c r="B3" s="52" t="s">
         <v>86</v>
       </c>
@@ -4119,8 +4193,8 @@
       <c r="F3" s="65"/>
       <c r="G3" s="133"/>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+    <row r="4" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="259" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4138,8 +4212,8 @@
       <c r="F4" s="66"/>
       <c r="G4" s="132"/>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="235"/>
+    <row r="5" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="260"/>
       <c r="B5" s="24" t="s">
         <v>36</v>
       </c>
@@ -4155,8 +4229,8 @@
       <c r="F5" s="67"/>
       <c r="G5" s="144"/>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="235"/>
+    <row r="6" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="260"/>
       <c r="B6" s="24" t="s">
         <v>37</v>
       </c>
@@ -4172,8 +4246,8 @@
       <c r="F6" s="67"/>
       <c r="G6" s="144"/>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="235"/>
+    <row r="7" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="260"/>
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4189,10 +4263,10 @@
       <c r="F7" s="67"/>
       <c r="G7" s="144"/>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="235"/>
+    <row r="8" spans="1:7" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="260"/>
       <c r="B8" s="130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>75</v>
@@ -4205,12 +4279,12 @@
         <v>0</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="144"/>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="235"/>
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="260"/>
       <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
@@ -4226,8 +4300,8 @@
       <c r="F9" s="67"/>
       <c r="G9" s="144"/>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="235"/>
+    <row r="10" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="260"/>
       <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
@@ -4243,8 +4317,8 @@
       <c r="F10" s="67"/>
       <c r="G10" s="144"/>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="235"/>
+    <row r="11" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="260"/>
       <c r="B11" s="24" t="s">
         <v>45</v>
       </c>
@@ -4260,8 +4334,8 @@
       <c r="F11" s="67"/>
       <c r="G11" s="144"/>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="236"/>
+    <row r="12" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="261"/>
       <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
@@ -4277,8 +4351,8 @@
       <c r="F12" s="65"/>
       <c r="G12" s="133"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="240" t="s">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="252" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="55" t="s">
@@ -4296,8 +4370,8 @@
       <c r="F13" s="66"/>
       <c r="G13" s="132"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="240"/>
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="252"/>
       <c r="B14" s="24" t="s">
         <v>53</v>
       </c>
@@ -4314,8 +4388,8 @@
       <c r="F14" s="67"/>
       <c r="G14" s="144"/>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="240"/>
+    <row r="15" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="252"/>
       <c r="B15" s="24" t="s">
         <v>55</v>
       </c>
@@ -4331,8 +4405,8 @@
       <c r="F15" s="67"/>
       <c r="G15" s="144"/>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240"/>
+    <row r="16" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="252"/>
       <c r="B16" s="24" t="s">
         <v>57</v>
       </c>
@@ -4348,8 +4422,8 @@
       <c r="F16" s="67"/>
       <c r="G16" s="144"/>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
+    <row r="17" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="252"/>
       <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
@@ -4365,10 +4439,10 @@
       <c r="F17" s="67"/>
       <c r="G17" s="144"/>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="240"/>
+    <row r="18" spans="1:7" s="23" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="252"/>
       <c r="B18" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>76</v>
@@ -4381,12 +4455,12 @@
         <v>0</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G18" s="144"/>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="240"/>
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="252"/>
       <c r="B19" s="24" t="s">
         <v>61</v>
       </c>
@@ -4402,8 +4476,8 @@
       <c r="F19" s="67"/>
       <c r="G19" s="144"/>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="240"/>
+    <row r="20" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="252"/>
       <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
@@ -4419,8 +4493,8 @@
       <c r="F20" s="67"/>
       <c r="G20" s="144"/>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="240"/>
+    <row r="21" spans="1:7" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="252"/>
       <c r="B21" s="54" t="s">
         <v>65</v>
       </c>
@@ -4436,175 +4510,175 @@
       <c r="F21" s="65"/>
       <c r="G21" s="133"/>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="245" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="241" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
+    <row r="22" spans="1:7" s="23" customFormat="1" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="269" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="265" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="265"/>
+      <c r="D22" s="265"/>
       <c r="E22" s="63" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="132"/>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
-      <c r="B23" s="267" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="267"/>
-      <c r="D23" s="267"/>
+    <row r="23" spans="1:7" s="23" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="270"/>
+      <c r="B23" s="240" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="240"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="27" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="144"/>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
-      <c r="B24" s="267" t="s">
+    <row r="24" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="270"/>
+      <c r="B24" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
       <c r="E24" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="144"/>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="246"/>
-      <c r="B25" s="251" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="194">
+    <row r="25" spans="1:7" s="23" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="270"/>
+      <c r="B25" s="242" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="243"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="191">
         <v>6</v>
       </c>
-      <c r="F25" s="195" t="s">
-        <v>259</v>
-      </c>
-      <c r="G25" s="196"/>
-    </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="247"/>
-      <c r="B26" s="268" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
+      <c r="F25" s="192" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="193"/>
+    </row>
+    <row r="26" spans="1:7" s="23" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="271"/>
+      <c r="B26" s="241" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
       <c r="E26" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G26" s="133"/>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="260" t="s">
-        <v>234</v>
-      </c>
-      <c r="B27" s="257" t="s">
+    <row r="27" spans="1:7" s="23" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="251" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="63" t="b">
         <v>1</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G27" s="132"/>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="261"/>
-      <c r="B28" s="242" t="s">
+    <row r="28" spans="1:7" s="23" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="253"/>
+      <c r="B28" s="266" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="268"/>
       <c r="E28" s="51" t="b">
         <v>1</v>
       </c>
       <c r="F28" s="131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G28" s="133"/>
     </row>
-    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="260" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="237" t="s">
+    <row r="29" spans="1:7" ht="81.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="251" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="238"/>
-      <c r="D29" s="239"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="G29" s="265" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="240"/>
-      <c r="B30" s="262" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="263"/>
-      <c r="D30" s="264"/>
+        <v>260</v>
+      </c>
+      <c r="G29" s="235" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="252"/>
+      <c r="B30" s="254" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="255"/>
+      <c r="D30" s="256"/>
       <c r="E30" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="266"/>
-    </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="261"/>
-      <c r="B31" s="254" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="255"/>
-      <c r="D31" s="256"/>
+        <v>142</v>
+      </c>
+      <c r="G30" s="236"/>
+    </row>
+    <row r="31" spans="1:7" s="23" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="253"/>
+      <c r="B31" s="237" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="238"/>
+      <c r="D31" s="239"/>
       <c r="E31" s="57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F31" s="131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="260" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="248" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="249"/>
-      <c r="D32" s="250"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="251" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="245" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
       <c r="E32" s="50">
         <v>1</v>
       </c>
@@ -4613,13 +4687,13 @@
       </c>
       <c r="G32" s="132"/>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="240"/>
-      <c r="B33" s="251" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="252"/>
-      <c r="D33" s="253"/>
+    <row r="33" spans="1:7" s="23" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="252"/>
+      <c r="B33" s="242" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="243"/>
+      <c r="D33" s="244"/>
       <c r="E33" s="27" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
@@ -4627,30 +4701,31 @@
       <c r="F33" s="67"/>
       <c r="G33" s="144"/>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="261"/>
-      <c r="B34" s="254" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="255"/>
-      <c r="D34" s="256"/>
+    <row r="34" spans="1:7" s="23" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="253"/>
+      <c r="B34" s="237" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="238"/>
+      <c r="D34" s="239"/>
       <c r="E34" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="133"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
@@ -4659,13 +4734,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4682,21 +4756,21 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="29" customWidth="1"/>
     <col min="2" max="2" width="17" style="29" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="68" style="29" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="29"/>
+    <col min="5" max="5" width="70.28515625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="29" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
         <v>21</v>
       </c>
@@ -4713,67 +4787,67 @@
         <v>26</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="271" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="74.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="274" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="203"/>
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="275"/>
+      <c r="B3" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="205" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" s="206"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="272"/>
-      <c r="B3" s="84" t="s">
-        <v>94</v>
-      </c>
       <c r="C3" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="84" t="str">
         <f>enumerated_chemical_space!E33</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="207"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="273"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="204"/>
+    </row>
+    <row r="4" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="276"/>
       <c r="B4" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="205" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="206"/>
+    </row>
+    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="277" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="209"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="274" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="113" t="s">
-        <v>96</v>
-      </c>
       <c r="C5" s="114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="113">
         <v>1</v>
@@ -4781,95 +4855,95 @@
       <c r="E5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="211"/>
-    </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="275"/>
+      <c r="F5" s="208"/>
+    </row>
+    <row r="6" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="278"/>
       <c r="B6" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="113" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="212"/>
-    </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="275"/>
+        <v>248</v>
+      </c>
+      <c r="F6" s="209"/>
+    </row>
+    <row r="7" spans="1:6" s="31" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="278"/>
       <c r="B7" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="114" t="s">
-        <v>99</v>
-      </c>
       <c r="D7" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="F7" s="212" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A8" s="275"/>
+    </row>
+    <row r="8" spans="1:6" s="31" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="278"/>
       <c r="B8" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="269" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="275"/>
+        <v>228</v>
+      </c>
+      <c r="F8" s="272" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="31" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="278"/>
       <c r="B9" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="270"/>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="276"/>
+        <v>142</v>
+      </c>
+      <c r="F9" s="273"/>
+    </row>
+    <row r="10" spans="1:6" s="31" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="279"/>
       <c r="B10" s="117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="210" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="213" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>269</v>
+      </c>
+      <c r="E10" s="207" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="210" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F8:F9"/>
@@ -4894,22 +4968,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="70.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="70.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="80" t="s">
         <v>28</v>
@@ -4927,167 +5001,167 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
     </row>
-    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
-        <v>137</v>
+    <row r="2" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="280" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="121" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="278"/>
+    <row r="3" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="281"/>
       <c r="B3" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="48" t="str">
         <f>parameters!D5</f>
         <v>/path/to/folder//MS1/IDSL.UFA/IPDB_name.Rdata</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="279"/>
+    <row r="4" spans="1:8" s="28" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="282"/>
       <c r="B4" s="146" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="148" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="149" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="280"/>
+    <row r="5" spans="1:8" s="28" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="283"/>
       <c r="B5" s="123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="125" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
     </row>
-    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="28" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="84" t="str">
         <f>parameters!D10</f>
         <v>/path/to/folder//MS1</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="28" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="222"/>
       <c r="B7" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
     </row>
-    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="28" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="223"/>
       <c r="B8" s="137" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="139" t="str">
         <f>parameters!D12</f>
         <v>/peaklists</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="281"/>
+    <row r="9" spans="1:8" s="28" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="284"/>
       <c r="B9" s="93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="95" t="str">
         <f>parameters!D15</f>
         <v>/path/to/folder//MS1/IDSL.UFA</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="282" t="s">
-        <v>224</v>
+    <row r="10" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="285" t="s">
+        <v>223</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="91">
         <f>parameters!D9</f>
@@ -5100,69 +5174,69 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="283"/>
+    <row r="11" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="286"/>
       <c r="B11" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="91">
         <v>0.1</v>
       </c>
       <c r="E11" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="283"/>
+    <row r="12" spans="1:8" s="28" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="286"/>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="12">
         <f>parameters!D19</f>
         <v>0.01</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="283"/>
+    <row r="13" spans="1:8" s="28" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="286"/>
       <c r="B13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="12">
         <f>parameters!D20</f>
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="283"/>
+    <row r="14" spans="1:8" s="28" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="286"/>
       <c r="B14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="12">
         <f>parameters!D21</f>
@@ -5175,10 +5249,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="283"/>
+    <row r="15" spans="1:8" s="28" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="286"/>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>68</v>
@@ -5194,143 +5268,143 @@
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="284"/>
+    <row r="16" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="287"/>
       <c r="B16" s="126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="128">
         <f>parameters!D23</f>
         <v>5</v>
       </c>
       <c r="E16" s="129" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="287" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="178" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="179" t="s">
+    <row r="17" spans="1:8" s="28" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="290" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="175" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="176" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="177" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="178" t="s">
         <v>108</v>
-      </c>
-      <c r="D17" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="181" t="s">
-        <v>109</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="288"/>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="291"/>
       <c r="B18" s="155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="157"/>
       <c r="E18" s="158" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="285" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="182" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="183" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="184">
+    <row r="19" spans="1:8" s="28" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="288" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="179" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="181">
         <f>D10</f>
         <v>1</v>
       </c>
-      <c r="E19" s="185" t="s">
+      <c r="E19" s="182" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="285"/>
-      <c r="B20" s="186" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="187" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="188" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="187" t="s">
-        <v>110</v>
+    <row r="20" spans="1:8" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="288"/>
+      <c r="B20" s="183" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="184" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="184" t="s">
+        <v>109</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="285"/>
-      <c r="B21" s="186" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="188" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="187" t="s">
-        <v>226</v>
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="288"/>
+      <c r="B21" s="183" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="185" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="184" t="s">
+        <v>225</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
     </row>
-    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="285"/>
-      <c r="B22" s="186" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="189" t="s">
+    <row r="22" spans="1:8" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="288"/>
+      <c r="B22" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="185">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="184" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="188">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="187" t="s">
-        <v>112</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="286"/>
+    <row r="23" spans="1:8" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="289"/>
       <c r="B23" s="151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="153">
         <v>10</v>
@@ -5342,7 +5416,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="28" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="150"/>
       <c r="B24" s="43"/>
       <c r="C24" s="36"/>
@@ -5352,7 +5426,7 @@
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="28" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="150"/>
       <c r="B25" s="43"/>
       <c r="C25" s="36"/>
@@ -5362,7 +5436,7 @@
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
     </row>
-    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="150"/>
       <c r="B26" s="43"/>
       <c r="C26" s="36"/>
